--- a/biology/Zoologie/Walter_P._Coombs/Walter_P._Coombs.xlsx
+++ b/biology/Zoologie/Walter_P._Coombs/Walter_P._Coombs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Walter Parson Coombs Jr est un paléontologue américain, né le 12 octobre 1942 à Springfield, Massachusetts.
-Il est professeur de biologie au Western New England College (en)[1] à  Springfield, Massachusetts.
+Il est professeur de biologie au Western New England College (en) à  Springfield, Massachusetts.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bachelor of Arts, université de Californie.
 Master of Arts, université Columbia.
@@ -544,9 +558,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des recherches de plusieurs années sur Aletopelta,  un dinosaure ankylosaure, depuis sa découverte en 1981[2],[3],[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des recherches de plusieurs années sur Aletopelta,  un dinosaure ankylosaure, depuis sa découverte en 1981.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2001, Tracy Lee Ford &amp; James Kirkland (en) nomment l’espèce de dinosaures Aletopelta coombsi en son honneur[6].
-En 2018, Paul Penkalski nomme l’espèce de dinosaures Platypelta coombsi en son honneur[7], espèce type du genre Platypelta.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2001, Tracy Lee Ford &amp; James Kirkland (en) nomment l’espèce de dinosaures Aletopelta coombsi en son honneur.
+En 2018, Paul Penkalski nomme l’espèce de dinosaures Platypelta coombsi en son honneur, espèce type du genre Platypelta.
 </t>
         </is>
       </c>
